--- a/calibration/dipole_approx_calibration.xlsx
+++ b/calibration/dipole_approx_calibration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_papers\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F935DC-1D50-4328-9B89-FE7A2599CD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C7B250-781B-4C61-BEBE-692D1EEE651F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14304" yWindow="8784" windowWidth="16080" windowHeight="5748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="5760" windowWidth="23736" windowHeight="6084" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -162,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -172,16 +173,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -191,31 +220,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -535,7 +539,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="10.199999999999999"/>
@@ -550,27 +554,27 @@
     <col min="13" max="16384" width="6.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" ht="10.8" thickTop="1">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10" t="s">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="10.8" thickTop="1">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
@@ -617,13 +621,13 @@
       <c r="B3" s="5">
         <v>-0.51407908640254218</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
         <v>0.94979887028609666</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>1.0237364507748785E-2</v>
       </c>
       <c r="F3" s="15">
@@ -635,13 +639,13 @@
       <c r="H3" s="5">
         <v>5.0677371892033571E-2</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
         <v>0.15772661805827348</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>4.177984631261681E-4</v>
       </c>
       <c r="L3" s="15">
@@ -655,16 +659,16 @@
       <c r="B4" s="7">
         <v>45.380477522913104</v>
       </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
         <v>0.94718557563952366</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>0</v>
       </c>
       <c r="G4" s="8">
@@ -673,54 +677,54 @@
       <c r="H4" s="7">
         <v>0.11607042598438339</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18">
-        <v>0</v>
-      </c>
-      <c r="K4" s="17">
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
         <v>0.15703889554298076</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="13" customFormat="1" ht="10.8" thickBot="1">
-      <c r="A5" s="13">
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="10.8" thickBot="1">
+      <c r="A5" s="10">
         <v>-43.763822308556954</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>-42.829851933354774</v>
       </c>
-      <c r="C5" s="13">
-        <v>0</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
         <v>-2.5704317526308588E-2</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="13">
         <v>1.7234795948546529E-3</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>1</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <v>-0.22306524763971483</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="10">
         <v>-0.18515714541358858</v>
       </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20">
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
         <v>2.4215357357557248E-3</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="13">
         <v>1.948939836583506E-3</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="10">
         <v>0.16100609684856371</v>
       </c>
     </row>
@@ -733,5 +737,6 @@
     <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>